--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomkeir/Library/CloudStorage/GoogleDrive-thomas.keir3@education.nsw.gov.au/My Drive/Stage 6/SDD/Year 12/Assessment 3/SDD-Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomkeir/Library/CloudStorage/GoogleDrive-thomas.keir3@education.nsw.gov.au/My Drive/Stage 6/SDD/Year 12/Assessment 3/SDD-Assignment/Sashimi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51339AAF-541A-5E43-9F48-C0E561E8594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028951FC-A305-8646-B17F-7196ADD82B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="4100" windowWidth="28800" windowHeight="16260" xr2:uid="{EAE6D90C-1D18-054A-963B-B8444B781C84}"/>
+    <workbookView xWindow="4320" yWindow="1100" windowWidth="28800" windowHeight="16260" xr2:uid="{EAE6D90C-1D18-054A-963B-B8444B781C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Import, Save Carnivals</t>
-  </si>
-  <si>
     <t>Athlete list, event list, creation/edit funcitons.</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>T1W7</t>
+  </si>
+  <si>
+    <t>Import, Save, Manage Carnivals</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -733,11 +733,65 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -748,18 +802,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -770,9 +851,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,86 +859,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,9 +901,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -932,7 +941,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1038,7 +1047,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1180,7 +1189,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,7 +1201,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C35" sqref="C35:C36"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,50 +1214,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="77" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="77" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="74"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="15">
         <v>6</v>
       </c>
@@ -1298,49 +1307,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="45" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
+    <row r="4" spans="1:21" s="63" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
     </row>
     <row r="5" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>44</v>
+      <c r="C5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -1360,11 +1369,11 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="30"/>
       <c r="G6" s="31"/>
       <c r="H6" s="27"/>
@@ -1383,19 +1392,19 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="49"/>
+      <c r="C7" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="70"/>
       <c r="F7" s="5"/>
       <c r="G7" s="33"/>
       <c r="H7" s="24"/>
@@ -1403,11 +1412,11 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="10"/>
       <c r="G8" s="34"/>
       <c r="H8" s="32"/>
@@ -1418,19 +1427,19 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="64" t="s">
+      <c r="A9" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="3"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11"/>
@@ -1449,11 +1458,11 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="83"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
@@ -1462,9 +1471,9 @@
       <c r="K10" s="36"/>
       <c r="L10" s="31"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1472,19 +1481,19 @@
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="51"/>
+      <c r="A11" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="78"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="18"/>
@@ -1503,11 +1512,11 @@
       <c r="U11" s="16"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="52"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
@@ -1516,9 +1525,9 @@
       <c r="K12" s="36"/>
       <c r="L12" s="31"/>
       <c r="M12" s="39"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -1526,19 +1535,19 @@
       <c r="U12" s="16"/>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="42"/>
+      <c r="C13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="74"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1557,11 +1566,11 @@
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="53"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="9"/>
@@ -1570,61 +1579,61 @@
       <c r="K14" s="36"/>
       <c r="L14" s="31"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-    </row>
-    <row r="16" spans="1:21" s="45" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+    </row>
+    <row r="16" spans="1:21" s="63" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="51"/>
+      <c r="C17" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="78"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1633,9 +1642,9 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="41"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="24"/>
       <c r="S17" s="26"/>
@@ -1643,11 +1652,11 @@
       <c r="U17" s="16"/>
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="52"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1666,19 +1675,19 @@
       <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="42"/>
+      <c r="C19" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="74"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1688,8 +1697,8 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="24"/>
       <c r="S19" s="26"/>
@@ -1697,11 +1706,11 @@
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1719,77 +1728,77 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="45" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
+    <row r="22" spans="1:21" s="63" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="49"/>
+      <c r="C23" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="70"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="24"/>
       <c r="S23" s="26"/>
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="71"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1808,11 +1817,11 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="75"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1830,67 +1839,67 @@
       <c r="T26" s="7"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="45" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
+    <row r="28" spans="1:21" s="63" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="49"/>
+      <c r="C29" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="70"/>
       <c r="S29" s="10"/>
       <c r="T29" s="24"/>
       <c r="U29" s="26"/>
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="80"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="50"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="71"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="83"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="42"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1909,11 +1918,11 @@
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="83"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="43"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1932,29 +1941,29 @@
       <c r="U32" s="3"/>
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="51"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="52"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1973,11 +1982,11 @@
       <c r="U35" s="3"/>
     </row>
     <row r="36" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1996,31 +2005,31 @@
       <c r="U36" s="3"/>
     </row>
     <row r="37" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="80"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="51"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="80"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="52"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="42"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="74"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2039,11 +2048,11 @@
       <c r="U39" s="3"/>
     </row>
     <row r="40" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2062,11 +2071,11 @@
       <c r="U40" s="3"/>
     </row>
     <row r="41" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="49"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="70"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -2080,11 +2089,11 @@
       <c r="Q41" s="16"/>
     </row>
     <row r="42" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="50"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="71"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -2098,11 +2107,11 @@
       <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2121,11 +2130,11 @@
       <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2144,9 +2153,9 @@
       <c r="U44" s="3"/>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
@@ -2154,9 +2163,9 @@
       <c r="S45" s="16"/>
     </row>
     <row r="46" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
@@ -2164,9 +2173,9 @@
       <c r="S46" s="16"/>
     </row>
     <row r="47" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2187,9 +2196,9 @@
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2210,16 +2219,16 @@
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
       <c r="T49" s="22"/>
       <c r="U49" s="22"/>
     </row>
     <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2240,9 +2249,9 @@
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2263,9 +2272,9 @@
       <c r="U51" s="3"/>
     </row>
     <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2286,9 +2295,9 @@
       <c r="U52" s="3"/>
     </row>
     <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="80"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2309,9 +2318,9 @@
       <c r="U53" s="22"/>
     </row>
     <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="80"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2332,9 +2341,9 @@
       <c r="U54" s="1"/>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="84"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -2355,9 +2364,9 @@
       <c r="U55" s="14"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="83"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="84"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -2402,42 +2411,61 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A21:XFD22"/>
+    <mergeCell ref="A27:XFD28"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A15:XFD16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A3:XFD4"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
@@ -2462,61 +2490,42 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A3:XFD4"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A21:XFD22"/>
-    <mergeCell ref="A27:XFD28"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A15:XFD16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomkeir/Library/CloudStorage/GoogleDrive-thomas.keir3@education.nsw.gov.au/My Drive/Stage 6/SDD/Year 12/Assessment 3/SDD-Assignment/Sashimi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028951FC-A305-8646-B17F-7196ADD82B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0902F598-4605-C84E-A4CD-E3240D539E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="1100" windowWidth="28800" windowHeight="16260" xr2:uid="{EAE6D90C-1D18-054A-963B-B8444B781C84}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -666,9 +666,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -733,143 +730,143 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +876,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDFFFFC"/>
       <color rgb="FFA9F2FF"/>
-      <color rgb="FFDFFFFC"/>
       <color rgb="FF20F397"/>
       <color rgb="FF00FDFF"/>
       <color rgb="FFFFD589"/>
@@ -901,9 +898,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -941,7 +938,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1047,7 +1044,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1189,7 +1186,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1201,7 +1198,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <selection pane="topRight" activeCell="M17" sqref="M17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,50 +1211,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="65" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="60"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="15">
         <v>6</v>
       </c>
@@ -1307,54 +1304,54 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="63" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
+    <row r="4" spans="1:21" s="47" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1369,14 +1366,14 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="12"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1392,34 +1389,34 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="26"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="71"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="5"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1427,27 +1424,27 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="74"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="3"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="26"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1458,96 +1455,96 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="3"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="3"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="78"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="79"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="19"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="43"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1557,83 +1554,83 @@
       <c r="L13" s="12"/>
       <c r="M13" s="3"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="80"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-    </row>
-    <row r="16" spans="1:21" s="63" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+    </row>
+    <row r="16" spans="1:21" s="47" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1641,22 +1638,22 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="21"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="20"/>
       <c r="U17" s="16"/>
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="79"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1664,30 +1661,30 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1696,21 +1693,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="26"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="75"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1719,86 +1716,86 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62" t="s">
+    <row r="21" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="63" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
+    <row r="22" spans="1:21" s="47" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="70"/>
+      <c r="E23" s="51"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="26"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="25"/>
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="71"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="52"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="74"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1811,17 +1808,17 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="26"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="25"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="75"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1839,67 +1836,67 @@
       <c r="T26" s="7"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="63" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
+    <row r="28" spans="1:21" s="47" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="70"/>
+      <c r="E29" s="51"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="26"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="25"/>
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="71"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="52"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="74"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1918,11 +1915,11 @@
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="75"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1941,29 +1938,29 @@
       <c r="U32" s="3"/>
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="78"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="79"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="74"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1982,11 +1979,11 @@
       <c r="U35" s="3"/>
     </row>
     <row r="36" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="75"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2005,31 +2002,31 @@
       <c r="U36" s="3"/>
     </row>
     <row r="37" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="78"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="79"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="74"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2048,11 +2045,11 @@
       <c r="U39" s="3"/>
     </row>
     <row r="40" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="75"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2071,11 +2068,11 @@
       <c r="U40" s="3"/>
     </row>
     <row r="41" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="70"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="51"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -2089,11 +2086,11 @@
       <c r="Q41" s="16"/>
     </row>
     <row r="42" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="71"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="52"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -2107,11 +2104,11 @@
       <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2130,11 +2127,11 @@
       <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2153,9 +2150,9 @@
       <c r="U44" s="3"/>
     </row>
     <row r="45" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="49"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
@@ -2163,9 +2160,9 @@
       <c r="S45" s="16"/>
     </row>
     <row r="46" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
@@ -2173,9 +2170,9 @@
       <c r="S46" s="16"/>
     </row>
     <row r="47" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2196,9 +2193,9 @@
       <c r="U47" s="3"/>
     </row>
     <row r="48" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2219,16 +2216,16 @@
       <c r="U48" s="3"/>
     </row>
     <row r="49" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
     </row>
     <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2249,9 +2246,9 @@
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2272,9 +2269,9 @@
       <c r="U51" s="3"/>
     </row>
     <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2295,9 +2292,9 @@
       <c r="U52" s="3"/>
     </row>
     <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2315,12 +2312,12 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="22"/>
+      <c r="U53" s="21"/>
     </row>
     <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2341,9 +2338,9 @@
       <c r="U54" s="1"/>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="53"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="86"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -2364,9 +2361,9 @@
       <c r="U55" s="14"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="53"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="86"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -2387,30 +2384,121 @@
       <c r="U56" s="14"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A3:XFD4"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="A21:XFD22"/>
@@ -2435,97 +2523,6 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A3:XFD4"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
